--- a/美智医疗/输血相关服务设计原材料20180716.xlsx
+++ b/美智医疗/输血相关服务设计原材料20180716.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD78E911-4F79-4C87-B6F8-B62EFA55B91A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F0B2AF63-E8F8-434B-B358-DFA3871D07F8}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7596" tabRatio="777" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="30000" windowHeight="16780" tabRatio="777" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="545">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="562">
   <si>
     <t>接口序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -217,30 +217,6 @@
   </si>
   <si>
     <t>主键</t>
-  </si>
-  <si>
-    <r>
-      <t>与变量“</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>patientID</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>”对应</t>
-    </r>
   </si>
   <si>
     <r>
@@ -656,25 +632,6 @@
     <t>审核医生职工号</t>
   </si>
   <si>
-    <r>
-      <t>流水号（输血申请号）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t/>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>key必填项</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>必填项</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2395,12 +2352,116 @@
     <t>ClinicalDocument/structuredBody/component/section/entry/observation/entryRelationship/organizer/component/observation/value@unit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>v3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/subject[1]/patient[1]/id[1]/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/subject[1]/patient[1]/patientPerson[1]/name[1]/item[1]/part[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/componentOf1[1]/encounter[1]/code[1]/displayName[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/componentOf1[1]/encounter[1]/id[1]/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/componentOf1[1]/encounter[1]/effectiveTime[1]/any[1]/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/componentOf1[1]/encounter[1]/id[1]/item[2]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/component2[1]/supplyRequest[1]/id[1]/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/id[1]/item[1]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/component2[1]/supplyRequest[1]/code[1]/@code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/component2[1]/supplyRequest[1]/code[1]/displayName[1]/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/component2[1]/supplyRequest[1]/text[1]/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/componentOf1[1]/encounter[1]/id[1]/item[3]/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流水号（输血申请号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>key必填项，与上面的那个申请单号重复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/effectiveTime[1]/any[1]/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>与变量“</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>patientID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>”对应，与上面就诊卡号重复</t>
+    </r>
+    <rPh sb="0" eb="3">
+      <t>yu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/subject[1]/patient[1]/providerOrganization[1]/id[1]/item[1]/@extension</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/subject[1]/patient[1]/providerOrganization[1]/name[1]/item[1]/part[1]/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/POOR_IN200901UV24/controlActProcess[1]/subject[1]/supplyRequest[1]/subject[1]/patient[1]/addr[1]/item[1]/part[1]/@value</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2629,7 +2690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2740,6 +2801,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3027,17 +3089,17 @@
       <selection activeCell="B8" sqref="B8:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="31.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.6640625" style="25" customWidth="1"/>
     <col min="4" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="131.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3045,7 +3107,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -3060,15 +3122,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C2" s="23" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>8</v>
@@ -3077,13 +3139,13 @@
         <v>7</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3091,7 +3153,7 @@
         <v>6</v>
       </c>
       <c r="C3" s="37" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -3103,10 +3165,10 @@
         <v>9</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3124,10 +3186,10 @@
         <v>9</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3145,10 +3207,10 @@
         <v>9</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="96.6" x14ac:dyDescent="0.25">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="105">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3166,58 +3228,58 @@
         <v>9</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="60">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>7</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F8" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G8" s="14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="45">
       <c r="C9" s="26" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3247,16 +3309,16 @@
       <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="26.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="181.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -3267,674 +3329,674 @@
         <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="G1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>413</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E6" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C7" s="22" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E7" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E8" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C9" s="22" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="C10" s="22" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E10" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C11" s="22" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F11" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C12" s="22" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E14" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E16" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F16" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="C17" s="22" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E17" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="27">
         <v>17</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="D18" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E18" s="30" t="s">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="27">
         <v>18</v>
       </c>
       <c r="B19" s="22" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="C19" s="28" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D19" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E19" s="30" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="40">
         <v>19</v>
       </c>
       <c r="B20" s="43" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C20" s="43" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E20" s="30" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="F20" t="s">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="41"/>
       <c r="B21" s="44"/>
       <c r="C21" s="44"/>
       <c r="D21" s="29" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E21" s="30" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F21" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="42"/>
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
       <c r="D22" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E22" s="30" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="F22" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="27">
         <v>20</v>
       </c>
       <c r="B23" s="22" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="C23" s="28" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E23" s="31" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="27">
         <v>21</v>
       </c>
       <c r="B24" s="22" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="C24" s="28" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="D24" s="29" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E24" s="32" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="27">
         <v>22</v>
       </c>
       <c r="B25" s="22" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="C25" s="28" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E25" s="32" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="27">
         <v>23</v>
       </c>
       <c r="B26" s="22" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="C26" s="28" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="27">
         <v>24</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="C27" s="28" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E27" s="30" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="27">
         <v>25</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="C28" s="28" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E28" s="30" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="27">
         <v>26</v>
       </c>
       <c r="B29" s="22" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="C29" s="28" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E29" s="32" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="27">
         <v>27</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="C30" s="28" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D30" s="33" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E30" s="34" t="s">
-        <v>527</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="27">
         <v>28</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="F31" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="27">
         <v>29</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="D32" s="33" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E32" s="30" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" s="27">
         <v>30</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="D33" s="29" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" s="27">
         <v>31</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="C34" s="22" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D34" s="29" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E34" s="34" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" s="27">
         <v>32</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="C35" s="22" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D35" s="29" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" s="27">
         <v>33</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C36" s="22" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D36" s="29" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" s="17">
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" s="17">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E38" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" s="17">
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
   </sheetData>
@@ -3974,19 +4036,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F56"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="130.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -3999,90 +4062,114 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E1" s="19" t="s">
+        <v>542</v>
+      </c>
       <c r="F1" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="E2" t="s">
+        <v>543</v>
+      </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D3" s="2"/>
+      <c r="E3" t="s">
+        <v>544</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="E4" t="s">
+        <v>543</v>
+      </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="E5" t="s">
+        <v>545</v>
+      </c>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D6" s="2"/>
+      <c r="E6" t="s">
+        <v>546</v>
+      </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D7" s="2"/>
+      <c r="E7" t="s">
+        <v>547</v>
+      </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2"/>
+      <c r="E8" t="s">
+        <v>548</v>
+      </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -4090,66 +4177,76 @@
         <v>20</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E9" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D10" s="6"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E10" s="4" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="4"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D12" s="6"/>
-      <c r="E12" s="4"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E12" s="4" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" s="4"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -4160,26 +4257,30 @@
         <v>52</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="E14" s="4"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+        <v>555</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>556</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -4190,9 +4291,11 @@
         <v>40</v>
       </c>
       <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
-    </row>
-    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="E16" s="4" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -4202,77 +4305,85 @@
       <c r="C17" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E17" s="4"/>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="D17" s="46" t="s">
+        <v>558</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="4"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="4"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="E19" s="4" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D20" s="6"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+      <c r="E20" s="4" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" ht="16">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D22" s="6"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="16">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4280,25 +4391,25 @@
         <v>23</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="16">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="16">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4306,49 +4417,49 @@
         <v>24</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="16">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D26" s="6"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" ht="16">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" ht="16">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" ht="16">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -4361,7 +4472,7 @@
       <c r="D29" s="6"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="16">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -4372,11 +4483,11 @@
         <v>43</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" ht="16">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -4387,11 +4498,11 @@
         <v>44</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" ht="16">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4404,7 +4515,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="16">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -4415,11 +4526,11 @@
         <v>46</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" ht="16">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -4427,23 +4538,23 @@
         <v>30</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D34" s="6"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="16">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="16">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -4456,7 +4567,7 @@
       <c r="D36" s="6"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" ht="16">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -4467,11 +4578,11 @@
         <v>48</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" ht="16">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -4482,10 +4593,10 @@
         <v>49</v>
       </c>
       <c r="D38" s="6" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="16">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -4496,10 +4607,10 @@
         <v>50</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="16">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -4510,10 +4621,10 @@
         <v>51</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -4524,10 +4635,10 @@
         <v>53</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -4538,10 +4649,10 @@
         <v>54</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -4552,162 +4663,162 @@
         <v>55</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D46" s="6" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C51" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D51" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="16.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" ht="16">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D52" s="6" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D53" s="6"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D56" s="6"/>
     </row>
@@ -4728,15 +4839,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -4753,613 +4864,613 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D14" s="6"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D17" s="6"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D18" s="2"/>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D33" s="6"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D34" s="6"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D35" s="6"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="30">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" ht="30">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>45</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="15" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="15" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="15" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="15" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="15" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="15" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="15" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="15" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="15" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D52" s="6"/>
     </row>
@@ -5376,19 +5487,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -5405,705 +5516,705 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="17">
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="17">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="17">
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="17">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="17">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="17">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="17">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D8" s="6"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="17">
         <v>8</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D9" s="6"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="17">
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D10" s="6"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="17">
         <v>10</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D11" s="6"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="17">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D12" s="6"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="17">
         <v>12</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D13" s="6"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="17">
         <v>13</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D14" s="6"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="17">
         <v>14</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D15" s="6"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="17">
         <v>15</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D16" s="6"/>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="17">
         <v>16</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D17" s="6"/>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="17">
         <v>17</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="17">
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="17">
         <v>19</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="17">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="17">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="17">
         <v>22</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="17">
         <v>23</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="17">
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D25" s="6"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="17">
         <v>25</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D26" s="6"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="17">
         <v>26</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D27" s="6"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="17">
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="17">
         <v>28</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D29" s="6"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="17">
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="17">
         <v>30</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D31" s="6"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="17">
         <v>31</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D32" s="6"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="17">
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="17">
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="17">
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="17">
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D36" s="6"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="17">
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="17">
         <v>37</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="17">
         <v>38</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D39" s="6"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="17">
         <v>39</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D40" s="6"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="17">
         <v>40</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="D41" s="6"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="17">
         <v>41</v>
       </c>
       <c r="B42" s="6"/>
       <c r="C42" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="D42" s="6"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="17">
         <v>42</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D43" s="6"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="17">
         <v>43</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D44" s="6"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="17">
         <v>44</v>
       </c>
       <c r="B45" s="6"/>
       <c r="C45" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="D45" s="6"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="17">
         <v>45</v>
       </c>
       <c r="B46" s="6"/>
       <c r="C46" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D46" s="6"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="17">
         <v>46</v>
       </c>
       <c r="B47" s="6"/>
       <c r="C47" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="D47" s="6"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="17">
         <v>47</v>
       </c>
       <c r="B48" s="6"/>
       <c r="C48" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="17">
         <v>48</v>
       </c>
       <c r="B49" s="6"/>
       <c r="C49" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D49" s="6"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="17">
         <v>49</v>
       </c>
       <c r="B50" s="6"/>
       <c r="C50" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D50" s="6"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="17">
         <v>50</v>
       </c>
       <c r="B51" s="6"/>
       <c r="C51" s="6" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D51" s="6"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="17">
         <v>51</v>
       </c>
       <c r="B52" s="6"/>
       <c r="C52" s="6" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D52" s="6"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="17">
         <v>52</v>
       </c>
       <c r="B53" s="6"/>
       <c r="C53" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="D53" s="6" t="s">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="17">
         <v>53</v>
       </c>
       <c r="B54" s="6"/>
       <c r="C54" s="6" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D54" s="6"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="17">
         <v>54</v>
       </c>
       <c r="B55" s="6"/>
       <c r="C55" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="D55" s="6"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="17">
         <v>55</v>
       </c>
       <c r="B56" s="6"/>
       <c r="C56" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D56" s="6"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="17">
         <v>56</v>
       </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D57" s="6"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="17">
         <v>57</v>
       </c>
       <c r="B58" s="6"/>
       <c r="C58" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D58" s="6"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="17">
         <v>58</v>
       </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D59" s="6"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="17">
         <v>59</v>
       </c>
       <c r="B60" s="6"/>
       <c r="C60" s="6" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D60" s="6"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="17">
         <v>60</v>
       </c>
       <c r="B61" s="6"/>
       <c r="C61" s="6" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D61" s="6"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="17">
         <v>61</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D62" s="6"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="17">
         <v>62</v>
       </c>
       <c r="B63" s="6"/>
       <c r="C63" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D63" s="6"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="17">
         <v>63</v>
       </c>
       <c r="B64" s="6"/>
       <c r="C64" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D64" s="6"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="17">
         <v>64</v>
       </c>
       <c r="B65" s="6"/>
       <c r="C65" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D65" s="6"/>
     </row>
@@ -6124,15 +6235,15 @@
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="29.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -6149,64 +6260,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="6">
         <v>1</v>
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D2" s="6"/>
       <c r="F2" s="3"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="6">
         <v>2</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D3" s="6"/>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="6">
         <v>3</v>
       </c>
       <c r="B4" s="6"/>
       <c r="C4" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D4" s="6"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="6">
         <v>4</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D5" s="6"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="6">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D6" s="6"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -6214,103 +6325,103 @@
         <v>20</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>56</v>
       </c>
       <c r="E7" s="4"/>
     </row>
-    <row r="8" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="6">
         <v>7</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="4"/>
     </row>
-    <row r="9" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="6">
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4"/>
     </row>
-    <row r="10" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="6">
         <v>9</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="4"/>
     </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="15" customHeight="1">
       <c r="A11" s="6">
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" ht="15" customHeight="1">
       <c r="A12" s="6">
         <v>11</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D12" s="6"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="15" customHeight="1">
       <c r="A13" s="6">
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="15" customHeight="1">
       <c r="A14" s="6">
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="6"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="16">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -6321,11 +6432,11 @@
         <v>43</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="16">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -6336,11 +6447,11 @@
         <v>44</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -6351,11 +6462,11 @@
         <v>46</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" ht="16">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -6363,23 +6474,23 @@
         <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D18" s="6"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" ht="16">
       <c r="A19" s="6">
         <v>18</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D19" s="6"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" ht="16">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -6392,54 +6503,54 @@
       <c r="D20" s="6"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="16">
       <c r="A21" s="6">
         <v>20</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="6">
         <v>21</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D22" s="6"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="6">
         <v>22</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D23" s="6"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="6">
         <v>23</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D24" s="6"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="6">
         <v>24</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D25" s="6"/>
     </row>
@@ -6460,15 +6571,15 @@
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="2" max="2" width="18.77734375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.83203125" style="1"/>
+    <col min="2" max="2" width="18.83203125" style="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.33203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="43.109375" style="12" customWidth="1"/>
+    <col min="4" max="4" width="43.1640625" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -6485,857 +6596,857 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C2" s="13" t="s">
         <v>56</v>
       </c>
       <c r="D2" s="13"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="13"/>
       <c r="C6" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="D6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="13"/>
       <c r="C7" s="6" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="13"/>
       <c r="C8" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="13"/>
       <c r="C9" s="6" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="D10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="13" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="D12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="13" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D13" s="13"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="13" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="D14" s="13"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D15" s="13"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D17" s="13"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="30">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C19" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D20" s="13"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D21" s="13"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D22" s="13"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D23" s="13"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D24" s="13"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D25" s="13"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D26" s="13"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D27" s="13"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D28" s="13"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D29" s="13"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D30" s="13"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D32" s="13"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C35" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D35" s="13"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D36" s="13"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C37" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D37" s="13"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D38" s="13"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D39" s="13"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D40" s="13"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="13" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D41" s="13"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D42" s="13"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D43" s="13"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C44" s="13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D44" s="13"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D45" s="13"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D46" s="13"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D47" s="13"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D48" s="13"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="13" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C49" s="13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="D49" s="13"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D50" s="13"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D51" s="13"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D52" s="13"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D53" s="13"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D54" s="13"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C55" s="13" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D55" s="13"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D56" s="13"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D57" s="13"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D58" s="13"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D59" s="13"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D60" s="13"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D61" s="13"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D62" s="13"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D63" s="13"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="13" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D64" s="13"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D65" s="13"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D66" s="13"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D67" s="13"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="13" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D68" s="13"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="13" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D69" s="13"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="13"/>
       <c r="C70" s="13" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D70" s="13"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="13"/>
       <c r="C71" s="13" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D71" s="13"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="13"/>
       <c r="C72" s="13" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D72" s="13"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="13" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D73" s="13"/>
     </row>
